--- a/Spreadsheats/Dropdowns.xlsx
+++ b/Spreadsheats/Dropdowns.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Stock</t>
   </si>
@@ -37,6 +37,9 @@
     <t xml:space="preserve">Operator</t>
   </si>
   <si>
+    <t xml:space="preserve">Tradetype</t>
+  </si>
+  <si>
     <t xml:space="preserve">OIL</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t xml:space="preserve">&lt;</t>
   </si>
   <si>
+    <t xml:space="preserve">Long</t>
+  </si>
+  <si>
     <t xml:space="preserve">GAIL</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short</t>
   </si>
   <si>
     <t xml:space="preserve">ADX</t>
@@ -177,13 +186,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -195,63 +204,72 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>16</v>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E5" s="0" t="s">
-        <v>17</v>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E6" s="0" t="s">
-        <v>18</v>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Spreadsheats/Dropdowns.xlsx
+++ b/Spreadsheats/Dropdowns.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">Stock</t>
   </si>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">Tradetype</t>
   </si>
   <si>
+    <t xml:space="preserve">Product</t>
+  </si>
+  <si>
     <t xml:space="preserve">OIL</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t xml:space="preserve">Long</t>
   </si>
   <si>
+    <t xml:space="preserve">CNC</t>
+  </si>
+  <si>
     <t xml:space="preserve">GAIL</t>
   </si>
   <si>
@@ -74,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve">Short</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIS</t>
   </si>
   <si>
     <t xml:space="preserve">ADX</t>
@@ -186,10 +195,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -213,63 +222,72 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Spreadsheats/Dropdowns.xlsx
+++ b/Spreadsheats/Dropdowns.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">Stock</t>
   </si>
@@ -43,6 +43,9 @@
     <t xml:space="preserve">Product</t>
   </si>
   <si>
+    <t xml:space="preserve">Index</t>
+  </si>
+  <si>
     <t xml:space="preserve">OIL</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t xml:space="preserve">CNC</t>
   </si>
   <si>
+    <t xml:space="preserve">NIFTY50</t>
+  </si>
+  <si>
     <t xml:space="preserve">GAIL</t>
   </si>
   <si>
@@ -85,10 +91,16 @@
     <t xml:space="preserve">MIS</t>
   </si>
   <si>
+    <t xml:space="preserve">NIFTYBANK</t>
+  </si>
+  <si>
     <t xml:space="preserve">ADX</t>
   </si>
   <si>
     <t xml:space="preserve">&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL</t>
   </si>
   <si>
     <t xml:space="preserve">&gt;=</t>
@@ -195,13 +207,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -219,75 +231,87 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="0" t="s">
         <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Spreadsheats/Dropdowns.xlsx
+++ b/Spreadsheats/Dropdowns.xlsx
@@ -76,7 +76,7 @@
     <t xml:space="preserve">15m</t>
   </si>
   <si>
-    <t xml:space="preserve">Helkin-Ashi</t>
+    <t xml:space="preserve">Heikin-Ashi</t>
   </si>
   <si>
     <t xml:space="preserve">RSI</t>
@@ -210,7 +210,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
